--- a/biology/Microbiologie/Aquaspirillum/Aquaspirillum.xlsx
+++ b/biology/Microbiologie/Aquaspirillum/Aquaspirillum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Aquaspirillum forment un genre de bactéries à gram négatif de forme hélicoïdale appartenant à la famille des Chromobacteriaceae, dans le groupe des Pseudomonadota.
 </t>
@@ -511,22 +523,128 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le genre Aquaspirillum prend son origine en 1832 lorsque le genre Spirillum a été créé pour inclure les bactéries hélicoïdales. En 1957, le genre Spirillum a été remanié[2] mais ce n'est qu'en 1973 que le genre Aquaspirillum est créé à la suite de la division du genre en Aquaspirillum, Oceanospirillum et Spirillum[1].
-Après avoir été classé dans la famille des Neisseriaceae, les Aquaspirillum sont désormais classées dans celle des Chromobacteriaceae[3].
-Étymologie
-L'étymologie du nom de genre Aquaspirillum est basée sur le mot aqua et se résume ainsi : A.qua.spi.ril.lum. L. fem. n. aqua, eau; Gr. fem. n. speîra, une spiralle; N.L. neut. dim. n. spirillum, une petite spiralle; N.L. neut. dim. n. Aquaspirillum, Une petite spiralle aquatique[4].
-Espèces
-Aquaspirillum arcticum Butler et al. 1990
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Aquaspirillum prend son origine en 1832 lorsque le genre Spirillum a été créé pour inclure les bactéries hélicoïdales. En 1957, le genre Spirillum a été remanié mais ce n'est qu'en 1973 que le genre Aquaspirillum est créé à la suite de la division du genre en Aquaspirillum, Oceanospirillum et Spirillum.
+Après avoir été classé dans la famille des Neisseriaceae, les Aquaspirillum sont désormais classées dans celle des Chromobacteriaceae.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Aquaspirillum</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aquaspirillum</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie du nom de genre Aquaspirillum est basée sur le mot aqua et se résume ainsi : A.qua.spi.ril.lum. L. fem. n. aqua, eau; Gr. fem. n. speîra, une spiralle; N.L. neut. dim. n. spirillum, une petite spiralle; N.L. neut. dim. n. Aquaspirillum, Une petite spiralle aquatique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Aquaspirillum</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aquaspirillum</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Aquaspirillum arcticum Butler et al. 1990
 Aquaspirillum bengal Kumar et al. 1974
 Aquaspirillum dispar Hylemon et al. 1973
 Aquaspirillum polymorphum (Williams and Rittenberg 1957) Hylemon et al. 1973
 Aquaspirillum putridiconchylium (Terasaki 1961) Hylemon et al. 1973
 Aquaspirillum serpens (Müller 1786) Hylemon et al. 1973, espèce type
-Aquaspirillum soli Moya et al. 2017
-Espèces déplacées dans un autre genre
-Aquaspirillum anulus (Williams and Rittenberg 1957) Hylemon et al. 1973 → Giesbergeria anulus (Williams and Rittenberg 1957) Grabovich et al. 2006
+Aquaspirillum soli Moya et al. 2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Aquaspirillum</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aquaspirillum</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Espèces déplacées dans un autre genre</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Aquaspirillum anulus (Williams and Rittenberg 1957) Hylemon et al. 1973 → Giesbergeria anulus (Williams and Rittenberg 1957) Grabovich et al. 2006
 Aquaspirillum aquaticum Hylemon et al. 1973 → Comamonas aquatica (Hylemon et al. 1973) Wauters et al. 2003
 Aquaspirillum autotrophicum Aragno and Schlegel 1978 → Herbaspirillum autotrophicum (Aragno and Schlegel 1978) Ding and Yokota 2004
 Aquaspirillum delicatum (Leifson 1962) Hylemon et al. 1973 → Curvibacter delicatus (Leifson 1962) Ding and Yokota 2004
@@ -542,33 +660,35 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Aquaspirillum</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Microbiologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Aquaspirillum</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Aquaspirillum sont des bactéries de formes hélicoïdales et rigides à l'exception de A. delicatum et A. fasciculus. Les bactéries mesurent 0,2 µm à 1,5 µm de diamètre. Elles ont tous une membrane polaire sous leur membrane cytoplasmique, et ont généralement deux touffes de flagelles, sur chaque pôle. Elles peuvent aussi n'avoir qu'un seul flagelle à chaque pôle au lieu de l'une ou l'autre de ces touffes[5],[6].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Aquaspirillum sont des bactéries de formes hélicoïdales et rigides à l'exception de A. delicatum et A. fasciculus. Les bactéries mesurent 0,2 µm à 1,5 µm de diamètre. Elles ont tous une membrane polaire sous leur membrane cytoplasmique, et ont généralement deux touffes de flagelles, sur chaque pôle. Elles peuvent aussi n'avoir qu'un seul flagelle à chaque pôle au lieu de l'une ou l'autre de ces touffes,.
 </t>
         </is>
       </c>
